--- a/导入更新格式.xlsx
+++ b/导入更新格式.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <r>
       <rPr>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t xml:space="preserve">理论重量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">来源</t>
   </si>
   <si>
     <t xml:space="preserve">库位</t>
@@ -543,13 +540,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.02734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.02734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="12.09"/>
@@ -559,14 +556,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="9.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="7.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="9.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="1" width="7.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="1" width="9.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="7.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="10.49"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -615,108 +611,99 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>123</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="1" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>123</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="H3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/导入更新格式.xlsx
+++ b/导入更新格式.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <r>
       <rPr>
@@ -175,9 +175,6 @@
     <t xml:space="preserve">天津</t>
   </si>
   <si>
-    <t xml:space="preserve">是</t>
-  </si>
-  <si>
     <t xml:space="preserve">M004762</t>
   </si>
   <si>
@@ -226,9 +223,6 @@
       </rPr>
       <t xml:space="preserve">-225</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">否</t>
   </si>
 </sst>
 </file>
@@ -543,7 +537,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.02734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -559,7 +553,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="1" width="9.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="7.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="12.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="10.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="10.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -655,16 +649,13 @@
       <c r="N2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>123</v>
@@ -682,28 +673,25 @@
         <v>21</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/导入更新格式.xlsx
+++ b/导入更新格式.xlsx
@@ -20,31 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">商品</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">id</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t xml:space="preserve">物料号</t>
   </si>
@@ -91,32 +67,13 @@
     <t xml:space="preserve">备注</t>
   </si>
   <si>
-    <t xml:space="preserve">3_104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M004761</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">调质</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">110KSI</t>
-    </r>
+    <t xml:space="preserve">M002759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">调质110KSI</t>
   </si>
   <si>
     <t xml:space="preserve">XYGN4935-2022-01</t>
@@ -128,101 +85,91 @@
     <t xml:space="preserve">2055452A</t>
   </si>
   <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">375.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A区-225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天津</t>
+  </si>
+  <si>
+    <t xml:space="preserve">否</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M002760</t>
+  </si>
+  <si>
     <t xml:space="preserve">19</t>
   </si>
   <si>
     <t xml:space="preserve">6190</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">区</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-224</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">天津</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M004762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">488.17</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">区</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-225</t>
-    </r>
+    <t xml:space="preserve">A区-224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M002761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A区-226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M002762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">745.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A区-228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M002763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102.33002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A区-227</t>
   </si>
 </sst>
 </file>
@@ -232,7 +179,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,21 +210,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -321,7 +253,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -332,14 +264,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -534,26 +458,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.02734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="12.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="12.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="1" width="9.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="7.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="12.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="10.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="1" width="9.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="7.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="10.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -602,121 +525,226 @@
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>123</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="L2" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="N2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>123</v>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="I3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="K3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="1" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>6960</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="N4" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
+    <row r="5" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3"/>
+    <row r="6" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
